--- a/log.xlsx
+++ b/log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\myschool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\myelementary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5FEF57-473C-4A06-A0DC-C11A48B98568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CFD724-92F2-47EF-B6D6-EA9D6F307A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="H2" s="4">
         <f>SUM(B3:B35)/60</f>
-        <v>0.73333333333333328</v>
+        <v>1.1333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -484,8 +484,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2">
+        <v>45754</v>
+      </c>
+      <c r="B4" s="1">
+        <v>24</v>
+      </c>
       <c r="D4" s="2">
         <v>45750</v>
       </c>
